--- a/Supplementary_data/Supporting_Information_Table_S2.xlsx
+++ b/Supplementary_data/Supporting_Information_Table_S2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krg114/Documents/GWAS_ms_documents/Submission documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2EA3E5C-211C-2C40-B59A-CA51B449D7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03659B7-BC15-814B-94CD-880454CDC3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32500" yWindow="4260" windowWidth="29040" windowHeight="15840" xr2:uid="{F36421C2-1C3E-4854-8D00-80E12A004A2B}"/>
   </bookViews>
@@ -44,21 +44,6 @@
     <t>Trait</t>
   </si>
   <si>
-    <t>PDS</t>
-  </si>
-  <si>
-    <t>Budburst</t>
-  </si>
-  <si>
-    <t>Leafloss</t>
-  </si>
-  <si>
-    <t>Senescence</t>
-  </si>
-  <si>
-    <t>Fallcolor</t>
-  </si>
-  <si>
     <t>Silkeborg</t>
   </si>
   <si>
@@ -99,6 +84,21 @@
   </si>
   <si>
     <t>Trait Mean</t>
+  </si>
+  <si>
+    <t>ADB crown damage</t>
+  </si>
+  <si>
+    <t>Spring bud burst</t>
+  </si>
+  <si>
+    <t>Autumn leaf loss</t>
+  </si>
+  <si>
+    <t>Autumn status</t>
+  </si>
+  <si>
+    <t>Autumn leaf yellowing</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -534,22 +534,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>38.33</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>3.56</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>7.59</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>2.86</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>0.64</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>43.07</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>2.67</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>3.16</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>4.3099999999999996</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>1.42</v>
@@ -702,10 +702,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C12" s="6">
         <v>64.64</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>2.31</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <v>7.43</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
         <v>6.92</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <v>1.91</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>24.04</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
         <v>1.57</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
         <v>7.32</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <v>7.26</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
         <v>2.38</v>
@@ -858,10 +858,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1">
         <v>37.54</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1">
         <v>2.36</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1">
         <v>5.89</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
         <v>5.35</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
         <v>1.48</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1">
         <v>34.950000000000003</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B28" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1">
         <v>3.69</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1">
         <v>3.76</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1">
         <v>4.7699999999999996</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B31" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1">
         <v>2.04</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1">
         <v>35.35</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1">
         <v>2.0299999999999998</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1">
         <v>8.33</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1">
         <v>8.83</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1">
         <v>3.46</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1">
         <v>45.19</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B38" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1">
         <v>3.97</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B39" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1">
         <v>1.78</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C40" s="1">
         <v>3.75</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1">
         <v>1.41</v>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1">
         <v>22.15</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B43" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1">
         <v>3.08</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B44" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1">
         <v>5.03</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B45" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1">
         <v>5.03</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B46" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
         <v>1.88</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="C47" s="1">
         <v>43.72</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B48" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C48" s="1">
         <v>2.4500000000000002</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B49" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C49" s="1">
         <v>4.26</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B50" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1">
         <v>7.37</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B51" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1">
         <v>2.81</v>
@@ -1326,10 +1326,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C52" s="1">
         <v>40.07</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B53" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C53" s="1">
         <v>2.15</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B54" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C54" s="1">
         <v>3.65</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B55" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C55" s="1">
         <v>7.2</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B56" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1">
         <v>2.81</v>

--- a/Supplementary_data/Supporting_Information_Table_S2.xlsx
+++ b/Supplementary_data/Supporting_Information_Table_S2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krg114/Documents/GWAS_ms_documents/Submission documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03659B7-BC15-814B-94CD-880454CDC3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A4C092-B277-0548-A549-75200B25A44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32500" yWindow="4260" windowWidth="29040" windowHeight="15840" xr2:uid="{F36421C2-1C3E-4854-8D00-80E12A004A2B}"/>
   </bookViews>
@@ -77,12 +77,6 @@
     <t>Kusel</t>
   </si>
   <si>
-    <t>Genotype Mean Square</t>
-  </si>
-  <si>
-    <t>Genotype DF</t>
-  </si>
-  <si>
     <t>Trait Mean</t>
   </si>
   <si>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>Autumn leaf yellowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean Square</t>
+  </si>
+  <si>
+    <t>Degress of freedom</t>
   </si>
 </sst>
 </file>
@@ -508,11 +508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90688F5B-1876-4CBE-BFEE-52C774E6DA69}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -534,13 +534,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>38.33</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>3.56</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>7.59</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>2.86</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>0.64</v>
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>43.07</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>2.67</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>3.16</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>4.3099999999999996</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>1.42</v>
@@ -705,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6">
         <v>64.64</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <v>2.31</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>7.43</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <v>6.92</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>1.91</v>
@@ -778,12 +778,12 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>24.04</v>
@@ -796,9 +796,9 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>1.57</v>
@@ -811,9 +811,9 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <v>7.32</v>
@@ -826,9 +826,9 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>7.26</v>
@@ -841,9 +841,9 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <v>2.38</v>
@@ -856,12 +856,12 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>37.54</v>
@@ -874,9 +874,9 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1">
         <v>2.36</v>
@@ -889,9 +889,9 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1">
         <v>5.89</v>
@@ -904,9 +904,9 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1">
         <v>5.35</v>
@@ -919,9 +919,9 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1">
         <v>1.48</v>
@@ -934,12 +934,12 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1">
         <v>34.950000000000003</v>
@@ -951,10 +951,11 @@
         <v>84</v>
       </c>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B28" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1">
         <v>3.69</v>
@@ -967,9 +968,9 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="1">
         <v>3.76</v>
@@ -982,9 +983,9 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B30" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1">
         <v>4.7699999999999996</v>
@@ -997,9 +998,9 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B31" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1">
         <v>2.04</v>
@@ -1012,12 +1013,12 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1">
         <v>35.35</v>
@@ -1032,7 +1033,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1">
         <v>2.0299999999999998</v>
@@ -1047,7 +1048,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1">
         <v>8.33</v>
@@ -1062,7 +1063,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1">
         <v>8.83</v>
@@ -1077,7 +1078,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1">
         <v>3.46</v>
@@ -1095,7 +1096,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1">
         <v>45.19</v>
@@ -1110,7 +1111,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B38" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C38" s="1">
         <v>3.97</v>
@@ -1125,7 +1126,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B39" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1">
         <v>1.78</v>
@@ -1140,7 +1141,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1">
         <v>3.75</v>
@@ -1155,7 +1156,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1">
         <v>1.41</v>
@@ -1173,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1">
         <v>22.15</v>
@@ -1188,7 +1189,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B43" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C43" s="1">
         <v>3.08</v>
@@ -1203,7 +1204,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B44" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44" s="1">
         <v>5.03</v>
@@ -1218,7 +1219,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B45" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>5.03</v>
@@ -1233,7 +1234,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B46" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C46" s="1">
         <v>1.88</v>
@@ -1251,7 +1252,7 @@
         <v>11</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C47" s="1">
         <v>43.72</v>
@@ -1266,7 +1267,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B48" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1">
         <v>2.4500000000000002</v>
@@ -1281,7 +1282,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B49" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C49" s="1">
         <v>4.26</v>
@@ -1296,7 +1297,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B50" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C50" s="1">
         <v>7.37</v>
@@ -1311,7 +1312,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B51" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1">
         <v>2.81</v>
@@ -1329,7 +1330,7 @@
         <v>12</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52" s="1">
         <v>40.07</v>
@@ -1344,7 +1345,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B53" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C53" s="1">
         <v>2.15</v>
@@ -1359,7 +1360,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B54" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C54" s="1">
         <v>3.65</v>
@@ -1374,7 +1375,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B55" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
         <v>7.2</v>
@@ -1389,7 +1390,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B56" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1">
         <v>2.81</v>
